--- a/SRC/FlowChart/inEVENT_Responder.xlsx
+++ b/SRC/FlowChart/inEVENT_Responder.xlsx
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_Func_CheckSpecialCard_Flow對符合的活動代碼做相關處置(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_Func_CheckSpecialCard_Flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,35 +289,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_ESC_Check因為沒有開功能，所以不上傳ESC(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_DCC_CHECK，DCC Host 沒開 不檢查是否做DCC(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_DCC_CurrencyOption這支程式沒做事，感覺邏輯部分被拿掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_DCC_Func_CheckTransactionFunction根據hostName，判斷交易功能是否有打開</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_DCC_Final_DCC_Option(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_Get_PayItem(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_SetTxnOnlineOffline_Flow(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_BuildAndSendPacket_Flow(暫時沒看code)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_NCCC_FUNCTION_GET_OPT_PAY_ITEM_(暫時沒看)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_Func_BDAU_DeleteAccumBatch因為客製化_CUSTOMER_INDICATOR_042_BDAU1_或是_CUSTOMER_INDICATOR_043_BDAU9_ 要刪除Batch資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,10 +315,6 @@
   </si>
   <si>
     <t>inFunc_DuplicateSave 不可連續刷卡檢核功能預設為 'N'，如果功能開啟此功能，會根據某些交易類型設定最新卡號給全域變數gszDuplicatePAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_DCC_OnlineRate(暫時沒看code)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -400,6 +360,47 @@
   <si>
     <t>_FUNCTION_CHECK_TERM_STATUS_確認機器狀態，
 包括是否已下TMS參數和DCC參數(暫時沒看code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_CheckSpecialCard_Flow對符合的活動代碼做相關處置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inNCCC_ESC_Check因為沒有開功能，所以不上傳ESC，看起來主要設定 pobTran-&gt;srBRec.inESCUploadMode </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_DCC_CurrencyOption這支程式沒做事，感覺邏輯部分被拿掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_DCC_OnlineRate(暫時沒看code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_DCC_CHECK，主要在設定pobTran-&gt;srBRec.uszDCCTransBit開關上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_DCC_Final_DCC_Option(暫時沒看code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_NCCC_FUNCTION_GET_OPT_PAY_ITEM_ 先判斷是否開啟 繳費項目功能，如果開啟，
+使用者透過輸入兩碼比對PITRecord取得對應的繳費代碼和繳費說明，並顯示在螢幕上提示使用者確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Get_PayItem(可參考 _NCCC_FUNCTION_GET_OPT_PAY_ITEM_)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_SetTxnOnlineOffline_Flow 看起來像是設定一些OnlineBit **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_BuildAndSendPacket_Flow  組收送解取得pobTran-&gt;srBRec.szDCC_AC判斷 (inNCCC_DCC_OnlineRate_CheckF59_TableR**)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -801,7 +802,7 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -831,373 +832,376 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="F19" s="1" t="s">
+    <row r="20" spans="5:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="5:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="F21" s="1" t="s">
+    <row r="22" spans="5:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="F23" s="1" t="s">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="F24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="5:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="F25" s="1" t="s">
+    <row r="26" spans="5:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="5:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="F27" s="1" t="s">
+    <row r="28" spans="5:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="F35" s="1" t="s">
+    <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="F36" s="1" t="s">
+    <row r="38" spans="2:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="F38" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F38" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E41" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="C43" s="1" t="s">
+    <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="D44" s="1" t="s">
+    <row r="46" spans="2:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="F46" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F48" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="F48" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="F59" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F61" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="F61" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="F65" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E67" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="F67" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
-        <v>63</v>
+      <c r="E68" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E70" t="s">
-        <v>66</v>
+      <c r="F70" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="E78" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E80" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="E80" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/FlowChart/inEVENT_Responder.xlsx
+++ b/SRC/FlowChart/inEVENT_Responder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -318,26 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inFunc_UpdateInvNum(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inECR_Send_Transaction_Result(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_ESC_FuncProcess(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inCREDIT_Func_CheckResult(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inSIGN_TouchSignature_Flow(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inFunc_PrintReceipt_ByBuffer_Flow列印帳單分流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,11 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_FUNCTION_CHECK_TERM_STATUS_確認機器狀態，
-包括是否已下TMS參數和DCC參數(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_Func_CheckSpecialCard_Flow對符合的活動代碼做相關處置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,15 +350,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_DCC_OnlineRate(暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inNCCC_DCC_CHECK，主要在設定pobTran-&gt;srBRec.uszDCCTransBit開關上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_DCC_Final_DCC_Option(暫時沒看code)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -401,6 +368,101 @@
   </si>
   <si>
     <t>inNCCC_Func_BuildAndSendPacket_Flow  組收送解取得pobTran-&gt;srBRec.szDCC_AC判斷 (inNCCC_DCC_OnlineRate_CheckF59_TableR**)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCREDIT_Func_CheckResult 看起來是設定pobTran-&gt;srBRec.uszNoSignatureBit，並呼叫inBATCH_Update_NoSignature_By_Sqlite 更新資料回資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inSIGN_TouchSignature_Flow 看起來是設定pobTran-&gt;srBRec.inSignStatus 更新回資料庫，又或是開啟signPad觸控簽名功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_ESC_FuncProcess 刪除舊的暫存Table，重新Create +Insert Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inECR_Send_Transaction_Result  如果不是pobTran-&gt;uszDelaySendBit ，呼叫inECR_Send_Transaction  Pack data完傳輸資料給ECR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_FUNCTION_CHECK_TERM_STATUS_確認機器狀態，
+包括是否已下TMS參數和DCC參數      (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暫時沒看code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inNCCC_DCC_OnlineRate           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(暫時沒看code)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>inNCCC_DCC_Final_DCC_Option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (暫時沒看code)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inFunc_UpdateInvNum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (暫時沒看code)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +482,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -731,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -802,7 +872,7 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -856,7 +926,7 @@
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="5:6" ht="30" x14ac:dyDescent="0.3">
@@ -911,7 +981,7 @@
     </row>
     <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -946,7 +1016,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
@@ -1076,7 +1146,7 @@
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.3">
@@ -1091,12 +1161,12 @@
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.3">
@@ -1106,27 +1176,27 @@
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.3">
@@ -1161,51 +1231,52 @@
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>